--- a/HDS10M.xlsx
+++ b/HDS10M.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,1166 +422,1241 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
         <is>
           <t>HDS10M</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1A SURFACE MOUNT GLASS PASSIVATED BRIDGE RECTIFIER</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VRRM (V)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IO (A)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>VF (V)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>IR (μA)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>1A SURFACE MOUNT GLASS PASSIVATED BRIDGE RECTIFIER</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HDS10M</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Part Number</t>
+          <t>VRRM (V)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>IO (A)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Case</t>
+          <t>VF (V)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Packaging</t>
+          <t>IR (μA)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HDS10M-13</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HDS</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5,000/Tape &amp; Reel</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Dec</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Characteristic</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Packaging</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HDS10M-13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Commercial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>HDS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5,000/Tape &amp; Reel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Product Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Characteristic</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Peak Repetitive Reverse Voltage
 Working Peak Reverse Voltage
 DC Blocking Voltage</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>VRRM
 VRWM
 VR</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>RMS Reverse Voltage</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>VR(RMS)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Average Rectified Output Current (Note 5) @ TC = +95°C</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>IO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Non-Repetitive Peak Forward Surge Current, 8.3ms
 Single Half Sine-Wave Superimposed on Rated Load</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>IFSM</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Non-Repetitive Peak Forward Surge Current, 1ms
 Single Half Sine-Wave Superimposed on Rated Load</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>IFSM</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>I2t Rating for Fusing (1ms &lt; t &lt; 8.3ms)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>I2t</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>A2S</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HDS10M</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Characteristic</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Typical Thermal Resistance, Junction to Ambient (Note 6)
 (Per Element)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>RθJA</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>°C/W</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Typical Thermal Resistance, Junction to Case (Per Element)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>RθJC</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>°C/W</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Typical Thermal Resistance, Junction to Lead (Per Element)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>RθJL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>°C/W</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Operating and Storage Temperature Range</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>TJ, TSTG</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>-55 to +150</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>°C</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Characteristic</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Typ</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Test Condition</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Reverse Breakdown Voltage (Note 7)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>V(BR)R</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>IR = 5μA</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Forward Voltage (Per Element)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>VF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.92</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>IF = 0.5A, TA = +25°C</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Leakage Current (Note 7) (Per Element)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>IR</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>—
 —</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.08
 20</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>5
 100</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>μA</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>VR = 1,000V, TA = +25°C
 VR = 1,000V, TA = +125°C</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Total Capacitance (Per Element)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>pF</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>VR = 4V, f = 1.0MHz</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>HDS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Dim</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Typ</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Total Capacitance (Per Element)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>--</t>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>pF</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>VR = 4V, f = 1.0MHz</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="A42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+          <t>HDS10M</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Typ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>7°</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>All Dimensions in mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7°</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>All Dimensions in mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Package Outline Dimensions</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Suggested Pad Layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Value
 (in mm)</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>2.54</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Y1</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>7.10</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
